--- a/results/trial_results.xlsx
+++ b/results/trial_results.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trial_batch</t>
+          <t>batch_20250812_2246</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,19 +591,19 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0.15</v>
+        <v>0.138</v>
       </c>
       <c r="P2" t="n">
-        <v>0.75</v>
+        <v>0.6677</v>
       </c>
       <c r="Q2" t="n">
-        <v>180</v>
+        <v>166.4</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05</v>
+        <v>0.0544</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-13T15:14:45.415236</t>
+          <t>2025-08-13T15:27:16.304336</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trial_batch</t>
+          <t>batch_20250812_2246</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>800</v>
@@ -679,19 +679,19 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.16</v>
+        <v>0.1401</v>
       </c>
       <c r="P3" t="n">
-        <v>0.77</v>
+        <v>0.7227</v>
       </c>
       <c r="Q3" t="n">
-        <v>190</v>
+        <v>179.9</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06</v>
+        <v>0.0436</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-13T15:14:45.415251</t>
+          <t>2025-08-13T15:27:16.304429</t>
         </is>
       </c>
     </row>

--- a/results/trial_results.xlsx
+++ b/results/trial_results.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>batch_20250812_2246</t>
+          <t>batch_20250813_1538</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,19 +591,19 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0.138</v>
+        <v>0.1372</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6677</v>
+        <v>0.7159</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4</v>
+        <v>182.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0544</v>
+        <v>0.0665</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-08-13T15:27:16.304336</t>
+          <t>2025-08-13T15:42:06.896858</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>batch_20250812_2246</t>
+          <t>batch_20250813_1538</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -679,19 +679,19 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.1401</v>
+        <v>0.1444</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7227</v>
+        <v>0.6912</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.9</v>
+        <v>198.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0436</v>
+        <v>0.043</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-08-13T15:27:16.304429</t>
+          <t>2025-08-13T15:42:06.896941</t>
         </is>
       </c>
     </row>
